--- a/artfynd/A 43704-2021.xlsx
+++ b/artfynd/A 43704-2021.xlsx
@@ -1067,10 +1067,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111669462</v>
+        <v>111669452</v>
       </c>
       <c r="B5" t="n">
-        <v>56890</v>
+        <v>99136</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1079,25 +1079,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102995</v>
+        <v>1449</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Buskskvätta</t>
+          <t>Hällebräcka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Saxifraga osloënsis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Knaben</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
         <v>6545444.891137185</v>
       </c>
       <c r="S5" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1155,6 +1155,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>över 1000 ex i fin blom</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1163,6 +1168,11 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>I kanten av markväg på kalhygge</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1179,10 +1189,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111669452</v>
+        <v>111669462</v>
       </c>
       <c r="B6" t="n">
-        <v>99136</v>
+        <v>56890</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1191,25 +1201,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1449</v>
+        <v>102995</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hällebräcka</t>
+          <t>Buskskvätta</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Saxifraga osloënsis</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Knaben</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1225,7 +1235,7 @@
         <v>6545444.891137185</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1267,11 +1277,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>över 1000 ex i fin blom</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1280,11 +1285,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>I kanten av markväg på kalhygge</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">

--- a/artfynd/A 43704-2021.xlsx
+++ b/artfynd/A 43704-2021.xlsx
@@ -1067,10 +1067,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111669452</v>
+        <v>111669462</v>
       </c>
       <c r="B5" t="n">
-        <v>99136</v>
+        <v>56890</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1079,25 +1079,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1449</v>
+        <v>102995</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hällebräcka</t>
+          <t>Buskskvätta</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Saxifraga osloënsis</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Knaben</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
         <v>6545444.891137185</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1155,11 +1155,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>över 1000 ex i fin blom</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
@@ -1168,11 +1163,6 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>I kanten av markväg på kalhygge</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1189,10 +1179,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111669462</v>
+        <v>111669452</v>
       </c>
       <c r="B6" t="n">
-        <v>56890</v>
+        <v>99136</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1201,25 +1191,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102995</v>
+        <v>1449</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Buskskvätta</t>
+          <t>Hällebräcka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Saxifraga osloënsis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Knaben</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1235,7 +1225,7 @@
         <v>6545444.891137185</v>
       </c>
       <c r="S6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1277,6 +1267,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>över 1000 ex i fin blom</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1285,6 +1280,11 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>I kanten av markväg på kalhygge</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">

--- a/artfynd/A 43704-2021.xlsx
+++ b/artfynd/A 43704-2021.xlsx
@@ -955,10 +955,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111669464</v>
+        <v>111669452</v>
       </c>
       <c r="B4" t="n">
-        <v>57067</v>
+        <v>99136</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -967,25 +967,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103055</v>
+        <v>1449</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Hällebräcka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Saxifraga osloënsis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>Knaben</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
         <v>6545444.891137185</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1043,6 +1043,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>över 1000 ex i fin blom</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1051,6 +1056,11 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>I kanten av markväg på kalhygge</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1179,10 +1189,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111669452</v>
+        <v>111669464</v>
       </c>
       <c r="B6" t="n">
-        <v>99136</v>
+        <v>57067</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1191,25 +1201,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1449</v>
+        <v>103055</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hällebräcka</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Saxifraga osloënsis</t>
+          <t>Emberiza citrinella</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Knaben</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1225,7 +1235,7 @@
         <v>6545444.891137185</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1267,11 +1277,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>över 1000 ex i fin blom</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1280,11 +1285,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>I kanten av markväg på kalhygge</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">

--- a/artfynd/A 43704-2021.xlsx
+++ b/artfynd/A 43704-2021.xlsx
@@ -1077,10 +1077,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111669462</v>
+        <v>111669464</v>
       </c>
       <c r="B5" t="n">
-        <v>56890</v>
+        <v>57067</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102995</v>
+        <v>103055</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Buskskvätta</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Emberiza citrinella</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111669464</v>
+        <v>111669462</v>
       </c>
       <c r="B6" t="n">
-        <v>57067</v>
+        <v>56890</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1205,21 +1205,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103055</v>
+        <v>102995</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Buskskvätta</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>

--- a/artfynd/A 43704-2021.xlsx
+++ b/artfynd/A 43704-2021.xlsx
@@ -955,10 +955,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111669452</v>
+        <v>111669462</v>
       </c>
       <c r="B4" t="n">
-        <v>99136</v>
+        <v>56890</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -967,25 +967,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1449</v>
+        <v>102995</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hällebräcka</t>
+          <t>Buskskvätta</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Saxifraga osloënsis</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Knaben</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
         <v>6545444.891137185</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1043,11 +1043,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>över 1000 ex i fin blom</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1056,11 +1051,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>I kanten av markväg på kalhygge</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1189,10 +1179,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111669462</v>
+        <v>111669452</v>
       </c>
       <c r="B6" t="n">
-        <v>56890</v>
+        <v>99136</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1201,25 +1191,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102995</v>
+        <v>1449</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Buskskvätta</t>
+          <t>Hällebräcka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Saxifraga osloënsis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Knaben</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1235,7 +1225,7 @@
         <v>6545444.891137185</v>
       </c>
       <c r="S6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1277,6 +1267,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>över 1000 ex i fin blom</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1285,6 +1280,11 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>I kanten av markväg på kalhygge</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">

--- a/artfynd/A 43704-2021.xlsx
+++ b/artfynd/A 43704-2021.xlsx
@@ -955,10 +955,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111669462</v>
+        <v>111669452</v>
       </c>
       <c r="B4" t="n">
-        <v>56890</v>
+        <v>99136</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -967,25 +967,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102995</v>
+        <v>1449</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Buskskvätta</t>
+          <t>Hällebräcka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Saxifraga osloënsis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Knaben</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
         <v>6545444.891137185</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1043,6 +1043,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>över 1000 ex i fin blom</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1051,6 +1056,11 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>I kanten av markväg på kalhygge</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1179,10 +1189,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111669452</v>
+        <v>111669462</v>
       </c>
       <c r="B6" t="n">
-        <v>99136</v>
+        <v>56890</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1191,25 +1201,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1449</v>
+        <v>102995</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Hällebräcka</t>
+          <t>Buskskvätta</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Saxifraga osloënsis</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Knaben</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1225,7 +1235,7 @@
         <v>6545444.891137185</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1267,11 +1277,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>över 1000 ex i fin blom</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1280,11 +1285,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>I kanten av markväg på kalhygge</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">

--- a/artfynd/A 43704-2021.xlsx
+++ b/artfynd/A 43704-2021.xlsx
@@ -955,10 +955,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111669452</v>
+        <v>111669464</v>
       </c>
       <c r="B4" t="n">
-        <v>99136</v>
+        <v>57067</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -967,25 +967,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1449</v>
+        <v>103055</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Hällebräcka</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Saxifraga osloënsis</t>
+          <t>Emberiza citrinella</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Knaben</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
         <v>6545444.891137185</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1043,11 +1043,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>över 1000 ex i fin blom</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1056,11 +1051,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>I kanten av markväg på kalhygge</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1077,10 +1067,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111669464</v>
+        <v>111669462</v>
       </c>
       <c r="B5" t="n">
-        <v>57067</v>
+        <v>56890</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1093,21 +1083,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>103055</v>
+        <v>102995</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Buskskvätta</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Emberiza citrinella</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1189,10 +1179,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111669462</v>
+        <v>111669452</v>
       </c>
       <c r="B6" t="n">
-        <v>56890</v>
+        <v>99136</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1201,25 +1191,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>102995</v>
+        <v>1449</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Buskskvätta</t>
+          <t>Hällebräcka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Saxifraga osloënsis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Knaben</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1235,7 +1225,7 @@
         <v>6545444.891137185</v>
       </c>
       <c r="S6" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1277,6 +1267,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>över 1000 ex i fin blom</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1285,6 +1280,11 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>I kanten av markväg på kalhygge</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">

--- a/artfynd/A 43704-2021.xlsx
+++ b/artfynd/A 43704-2021.xlsx
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>563744.0521092848</v>
+        <v>563744</v>
       </c>
       <c r="R4" t="n">
-        <v>6545444.891137185</v>
+        <v>6545445</v>
       </c>
       <c r="S4" t="n">
         <v>50</v>
@@ -1028,19 +1028,9 @@
           <t>2023-05-21</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-05-21</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1107,10 +1097,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>563744.0521092848</v>
+        <v>563744</v>
       </c>
       <c r="R5" t="n">
-        <v>6545444.891137185</v>
+        <v>6545445</v>
       </c>
       <c r="S5" t="n">
         <v>50</v>
@@ -1140,19 +1130,9 @@
           <t>2023-05-21</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-05-21</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1219,10 +1199,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>563744.0521092848</v>
+        <v>563744</v>
       </c>
       <c r="R6" t="n">
-        <v>6545444.891137185</v>
+        <v>6545445</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1252,19 +1232,9 @@
           <t>2023-05-21</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-05-21</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
